--- a/Analyses/loci_monomorphic_checks.xlsx
+++ b/Analyses/loci_monomorphic_checks.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>actual total</t>
   </si>
@@ -78,11 +78,68 @@
   <si>
     <t># polymorphic</t>
   </si>
+  <si>
+    <t xml:space="preserve">The information above is incorrect. After checking the highlighted loci below, I found the  following: </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10130: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">biallelic catalog SNPs A &amp; G at location 13. </t>
+    </r>
+  </si>
+  <si>
+    <t>0202</t>
+  </si>
+  <si>
+    <t>0102</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10151: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">biallelic catalog SNPs </t>
+    </r>
+  </si>
+  <si>
+    <t>0101</t>
+  </si>
+  <si>
+    <t>This occurred for 121 loci out of 1110</t>
+  </si>
+  <si>
+    <t>no HWE calculated</t>
+  </si>
+  <si>
+    <t>estimated no HWE</t>
+  </si>
+  <si>
+    <t>proportion</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -113,15 +170,33 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -129,13 +204,135 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1110"/>
+  <dimension ref="A1:AL1110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,16 +634,16 @@
       <c r="B1">
         <v>10006</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="1"/>
@@ -458,16 +655,16 @@
       <c r="B2">
         <v>10007</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="6">
         <v>1110</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="7">
         <v>989</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="7">
         <v>20</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="8">
         <f>F2/E2</f>
         <v>0.89099099099099099</v>
       </c>
@@ -479,27 +676,31 @@
       <c r="B3">
         <v>10010</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G3" s="7"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10011</v>
       </c>
       <c r="B4">
         <v>10011</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="11">
         <v>8500</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="12">
         <f>E4*H2</f>
         <v>7573.4234234234236</v>
       </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -516,6 +717,9 @@
       <c r="B6">
         <v>10017</v>
       </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -524,6 +728,9 @@
       <c r="B7">
         <v>10018</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -532,6 +739,12 @@
       <c r="B8">
         <v>10020</v>
       </c>
+      <c r="F8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>130</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -540,6 +753,12 @@
       <c r="B9">
         <v>10021</v>
       </c>
+      <c r="F9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -548,6 +767,10 @@
       <c r="B10">
         <v>10026</v>
       </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -556,6 +779,12 @@
       <c r="B11">
         <v>1003</v>
       </c>
+      <c r="F11" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11">
+        <v>129</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -564,6 +793,12 @@
       <c r="B12">
         <v>10032</v>
       </c>
+      <c r="F12" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -573,12 +808,15 @@
         <v>10044</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10062</v>
       </c>
       <c r="B14">
         <v>10062</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -588,6 +826,15 @@
       <c r="B15">
         <v>10067</v>
       </c>
+      <c r="E15" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -596,24 +843,49 @@
       <c r="B16">
         <v>1007</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E16" s="22">
+        <v>1110</v>
+      </c>
+      <c r="F16" s="23">
+        <v>121</v>
+      </c>
+      <c r="G16" s="24">
+        <f>F16/E16</f>
+        <v>0.10900900900900901</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10070</v>
       </c>
       <c r="B17">
         <v>10070</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E17" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>10077</v>
       </c>
       <c r="B18">
         <v>10077</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E18" s="25">
+        <v>8500</v>
+      </c>
+      <c r="F18" s="26">
+        <f>G16*E18</f>
+        <v>926.5765765765766</v>
+      </c>
+      <c r="G18" s="27"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10089</v>
       </c>
@@ -621,7 +893,7 @@
         <v>10089</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10096</v>
       </c>
@@ -629,7 +901,7 @@
         <v>10096</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10098</v>
       </c>
@@ -637,7 +909,7 @@
         <v>10098</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>101</v>
       </c>
@@ -645,7 +917,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1010</v>
       </c>
@@ -653,7 +925,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10109</v>
       </c>
@@ -661,7 +933,7 @@
         <v>10109</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>10118</v>
       </c>
@@ -669,7 +941,7 @@
         <v>10118</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1012</v>
       </c>
@@ -677,7 +949,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10120</v>
       </c>
@@ -685,7 +957,7 @@
         <v>10120</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>10129</v>
       </c>
@@ -693,7 +965,7 @@
         <v>10129</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1013</v>
       </c>
@@ -701,15 +973,15 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>10134</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2">
         <v>10130</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>10142</v>
       </c>
@@ -717,7 +989,7 @@
         <v>10134</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>10161</v>
       </c>
@@ -729,7 +1001,7 @@
       <c r="A33">
         <v>10170</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="2">
         <v>10151</v>
       </c>
     </row>
@@ -8796,85 +9068,87 @@
         <v>15057</v>
       </c>
     </row>
-    <row r="1073" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1073" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B1073">
         <v>15060</v>
       </c>
     </row>
-    <row r="1074" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1074" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B1074">
         <v>15063</v>
       </c>
     </row>
-    <row r="1075" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1075" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B1075">
         <v>15069</v>
       </c>
     </row>
-    <row r="1076" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1076" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B1076">
         <v>1507</v>
       </c>
     </row>
-    <row r="1077" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1077" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B1077">
         <v>15071</v>
       </c>
     </row>
-    <row r="1078" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1078" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B1078">
         <v>15073</v>
       </c>
     </row>
-    <row r="1079" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1079" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B1079">
         <v>15077</v>
       </c>
     </row>
-    <row r="1080" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1080" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B1080">
         <v>1508</v>
       </c>
     </row>
-    <row r="1081" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1081" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B1081">
         <v>15084</v>
       </c>
     </row>
-    <row r="1082" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1082" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B1082">
         <v>15086</v>
       </c>
     </row>
-    <row r="1083" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1083" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B1083">
         <v>15089</v>
       </c>
     </row>
-    <row r="1084" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1084" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B1084">
         <v>15092</v>
       </c>
     </row>
-    <row r="1085" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1085" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B1085">
         <v>15094</v>
       </c>
     </row>
-    <row r="1086" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1086" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B1086">
         <v>15095</v>
       </c>
     </row>
-    <row r="1087" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1087" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B1087">
         <v>15106</v>
       </c>
     </row>
-    <row r="1088" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1088" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B1088">
         <v>15110</v>
       </c>
+      <c r="AI1088" s="2"/>
+      <c r="AL1088" s="2"/>
     </row>
     <row r="1089" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1089">
